--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02E103F-361F-42B9-90E4-C9B51017068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3914CBC-EEB0-4A14-A0A5-CCD4E2CF4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>2877. Create a DataFrame from List</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Simple creation of a dataframe. Define the column names. Use pd documentation as reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/create-a-dataframe-from-list/solutions/4140937/easy-beginner-friendly-pandas-beats-90/ </t>
   </si>
 </sst>
 </file>
@@ -82,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -117,7 +139,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -140,14 +162,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3EE9083D-0D63-4750-A722-07E106EC8E7D}" name="Pattern"/>
     <tableColumn id="6" xr3:uid="{A7F8125B-A46D-45A5-A7F7-7B50CAA3589B}" name="Notes"/>
-    <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link"/>
+    <tableColumn id="4" xr3:uid="{DE704AFB-97F3-4301-86F4-4553376A5970}" name="Link" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,13 +471,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3914CBC-EEB0-4A14-A0A5-CCD4E2CF4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58140B87-D680-45ED-B7A8-BEE8D42CF5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/create-a-dataframe-from-list/solutions/4140937/easy-beginner-friendly-pandas-beats-90/ </t>
+  </si>
+  <si>
+    <t>Data Inspection</t>
+  </si>
+  <si>
+    <t>2878. Get the Size of a DataFrame</t>
+  </si>
+  <si>
+    <t>return [players.shape[0], players.shape[1]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/get-the-size-of-a-dataframe/solutions/4140949/easy-solution-beginner-friendly-pandas-beats-90/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -162,8 +174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -438,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,14 +499,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{9AE253A5-8220-4E5E-8235-9DE27A450D4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58140B87-D680-45ED-B7A8-BEE8D42CF5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DACC20-7A0A-482A-B3A2-EE01611223B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/get-the-size-of-a-dataframe/solutions/4140949/easy-solution-beginner-friendly-pandas-beats-90/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>2879. Display the First Three Rows</t>
+  </si>
+  <si>
+    <t>return .head(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/display-the-first-three-rows/solutions/4140963/easy-solution-beginner-friendly-pandas-beats-90/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -174,8 +183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,15 +525,33 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{9AE253A5-8220-4E5E-8235-9DE27A450D4B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{79F43DC9-E793-45E9-B3E8-BB2EC4C04CF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DACC20-7A0A-482A-B3A2-EE01611223B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548C1507-581B-496D-93F8-3E50DF3A4E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/display-the-first-three-rows/solutions/4140963/easy-solution-beginner-friendly-pandas-beats-90/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/select-data/solutions/4140968/easy-solution-beginner-friendly-pandas-beats-98/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>2880. Select Data</t>
+  </si>
+  <si>
+    <t>Data Selecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use indexing or .loc. Check pandas.loc: https://pandas.pydata.org/pandas-docs/stable/reference/api/pandas.DataFrame.loc.html </t>
   </si>
 </sst>
 </file>
@@ -183,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E5" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,16 +554,34 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{9AE253A5-8220-4E5E-8235-9DE27A450D4B}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{79F43DC9-E793-45E9-B3E8-BB2EC4C04CF1}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{66F86E8E-064A-4540-9861-4F79AC3D3DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548C1507-581B-496D-93F8-3E50DF3A4E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA11D48-0C61-4CE2-83D8-8617F5AFA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">Use indexing or .loc. Check pandas.loc: https://pandas.pydata.org/pandas-docs/stable/reference/api/pandas.DataFrame.loc.html </t>
+  </si>
+  <si>
+    <t>2881. Create a New Column</t>
+  </si>
+  <si>
+    <t>Use the .assign() method, or simply define a new column.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/create-a-new-column/solutions/4141035/easy-solution-beginner-friendly-pandas-line-by-line-explanation/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -195,8 +204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E5" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,17 +580,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{9AE253A5-8220-4E5E-8235-9DE27A450D4B}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{79F43DC9-E793-45E9-B3E8-BB2EC4C04CF1}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{66F86E8E-064A-4540-9861-4F79AC3D3DD5}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{745E5133-A564-4BFD-8F27-A5A60E0615D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA11D48-0C61-4CE2-83D8-8617F5AFA845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42918944-01EB-490C-A08B-ED18ED7181CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/create-a-new-column/solutions/4141035/easy-solution-beginner-friendly-pandas-line-by-line-explanation/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>2882. Drop Duplicate Rows</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/drop-duplicate-rows/solutions/4141029/easy-solution-beginner-friendly-pandas-line-by-line-explanation/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata</t>
+  </si>
+  <si>
+    <t>Use drop_duplicates() method.</t>
   </si>
 </sst>
 </file>
@@ -204,8 +216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +607,23 @@
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42918944-01EB-490C-A08B-ED18ED7181CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F175A6-1630-4DA6-A83A-86DCCB3DECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Use drop_duplicates() method.</t>
+  </si>
+  <si>
+    <t>2883. Drop Missing Data</t>
+  </si>
+  <si>
+    <t>Use dropna() method, but with subset = [col] to select the column. E.g. dropna(subset=['name']). Alternatively, create a new df with .notnull().</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/drop-missing-data/solutions/4141046/easy-solution-beginner-friendly-pandas-line-by-line-explanation/ </t>
   </si>
 </sst>
 </file>
@@ -216,8 +225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +635,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
@@ -633,11 +659,12 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{79F43DC9-E793-45E9-B3E8-BB2EC4C04CF1}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{66F86E8E-064A-4540-9861-4F79AC3D3DD5}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{745E5133-A564-4BFD-8F27-A5A60E0615D1}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{FB240754-5AC3-4134-AE28-2DC8B54FD0BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F175A6-1630-4DA6-A83A-86DCCB3DECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D554726-0744-4F46-A9FE-9C4D053B29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/drop-missing-data/solutions/4141046/easy-solution-beginner-friendly-pandas-line-by-line-explanation/ </t>
+  </si>
+  <si>
+    <t>2884. Modify Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/modify-columns/solutions/4141037/easy-solution-beginner-friendly-pandas-line-by-line-explanation/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Modify the column by key access.</t>
   </si>
 </sst>
 </file>
@@ -225,8 +234,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +661,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
@@ -660,11 +686,12 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{66F86E8E-064A-4540-9861-4F79AC3D3DD5}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{745E5133-A564-4BFD-8F27-A5A60E0615D1}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{FB240754-5AC3-4134-AE28-2DC8B54FD0BA}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{8C235574-C6C0-4A2D-8E7C-76D8976ED070}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D554726-0744-4F46-A9FE-9C4D053B29AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE637DD-325D-4100-808D-602A8FBE1712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Modify the column by key access.</t>
+  </si>
+  <si>
+    <t>2885. Rename Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use .rename() method. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rename-columns/solutions/4141051/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -234,8 +243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,6 +687,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
@@ -687,11 +713,12 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{745E5133-A564-4BFD-8F27-A5A60E0615D1}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{FB240754-5AC3-4134-AE28-2DC8B54FD0BA}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{8C235574-C6C0-4A2D-8E7C-76D8976ED070}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{E84172A9-F09A-484C-AF9E-3FF2163CE561}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE637DD-325D-4100-808D-602A8FBE1712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C4BAE-0F3B-4373-BCBB-BF0FDD1F3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/rename-columns/solutions/4141051/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>2886. Change Data Type</t>
+  </si>
+  <si>
+    <t>Use .astype(). Df['col'] = df[['col']].astype(int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/change-data-type/solutions/4141063/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -243,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +713,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
@@ -714,11 +740,12 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{FB240754-5AC3-4134-AE28-2DC8B54FD0BA}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{8C235574-C6C0-4A2D-8E7C-76D8976ED070}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{E84172A9-F09A-484C-AF9E-3FF2163CE561}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{31141867-748A-4760-AA0F-33CDEAAC13DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C4BAE-0F3B-4373-BCBB-BF0FDD1F3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5117B5-74E6-4057-970B-3AF80401AA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -156,6 +156,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/change-data-type/solutions/4141063/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>2887. Fill Missing Data</t>
+  </si>
+  <si>
+    <t>Use fillna(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/fill-missing-data/solutions/4141068/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Table Reshaping</t>
+  </si>
+  <si>
+    <t>2888. Reshape Data: Concatenate</t>
+  </si>
+  <si>
+    <t>Vertical concatenation is when you stack the rows of the two dataframes. Use .concat([df1, df2])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reshape-data-concatenate/solutions/4141091/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
   </si>
 </sst>
 </file>
@@ -252,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -528,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +751,40 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
@@ -741,11 +796,13 @@
     <hyperlink ref="E9" r:id="rId7" xr:uid="{8C235574-C6C0-4A2D-8E7C-76D8976ED070}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{E84172A9-F09A-484C-AF9E-3FF2163CE561}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{31141867-748A-4760-AA0F-33CDEAAC13DA}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{0890EAEE-008E-4212-B6C6-6CD7A990088F}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{EFA8ED04-BF40-4626-A876-AD59292EBA4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/python/patterns/IntroPandas.xlsx
+++ b/python/patterns/IntroPandas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\python\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5117B5-74E6-4057-970B-3AF80401AA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A925CA25-4E10-4719-A90D-36155B75891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Question</t>
   </si>
@@ -177,6 +177,36 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/reshape-data-concatenate/solutions/4141091/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>2889. Reshape Data: Pivot</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reshape-data-pivot/solutions/4141174/pandas-1-line-elegant-short-and-more-pandas-solutions/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata</t>
+  </si>
+  <si>
+    <t>Use df.pivot(index='month', columns='city', values='temperature')</t>
+  </si>
+  <si>
+    <t>2890. Reshape Data: Melt</t>
+  </si>
+  <si>
+    <t>Use pd.melt(report, id_vars=['product'], var_name='quarter', value_name='sales')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/reshape-data-melt/solutions/4141084/line-by-line-explanation-easy-solution-beginner-friendly-pandas/?envType=study-plan-v2&amp;envId=introduction-to-pandas&amp;lang=pythondata </t>
+  </si>
+  <si>
+    <t>Advanced Techniques</t>
+  </si>
+  <si>
+    <t>2891. Method Chaining</t>
+  </si>
+  <si>
+    <t>Chain methods: return animals[animals['weight'] &gt; 100].sort_values(['weight'], ascending=False,)[['name']]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/method-chaining/solutions/4134716/easy-pandas-solution-one-liner-beginner-friendly/ </t>
   </si>
 </sst>
 </file>
@@ -273,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -549,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -785,6 +815,57 @@
         <v>46</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{788B1500-00C9-499E-A112-ABFDE08A32E9}"/>
@@ -798,11 +879,14 @@
     <hyperlink ref="E11" r:id="rId9" xr:uid="{31141867-748A-4760-AA0F-33CDEAAC13DA}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{0890EAEE-008E-4212-B6C6-6CD7A990088F}"/>
     <hyperlink ref="E13" r:id="rId11" xr:uid="{EFA8ED04-BF40-4626-A876-AD59292EBA4D}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{B1F31529-D75B-42D4-842D-654BCBCA54C8}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{40775046-78B3-4D5C-9110-BC29A5B398EE}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{EFECB81C-6798-4865-91F2-D538792A5A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>